--- a/resource/himeji/sales_info.xlsx
+++ b/resource/himeji/sales_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p000078/.bitnami/stackman/machines/xampp/volumes/root/htdocs/resource/himeji/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3FE6AE-FDCD-6241-831A-4FD5B904ABA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317305AB-5BFA-1A46-A297-9B51859F46C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="21700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>store_area</t>
   </si>
@@ -110,6 +110,27 @@
   </si>
   <si>
     <t>姫路市飾磨区今在家7-88</t>
+  </si>
+  <si>
+    <t>別エリア</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ベツエリア </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>店舗名</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">テンポメイ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>住所</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジュウショ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -564,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
@@ -732,6 +753,17 @@
         <v>29</v>
       </c>
     </row>
+    <row r="15" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resource/himeji/sales_info.xlsx
+++ b/resource/himeji/sales_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p000078/.bitnami/stackman/machines/xampp/volumes/root/htdocs/resource/himeji/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317305AB-5BFA-1A46-A297-9B51859F46C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052D0583-FE5D-974E-B9CF-0445AB6628AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="21700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="21700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sales_list" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>store_area</t>
   </si>
@@ -110,34 +110,13 @@
   </si>
   <si>
     <t>姫路市飾磨区今在家7-88</t>
-  </si>
-  <si>
-    <t>別エリア</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">ベツエリア </t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>店舗名</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">テンポメイ </t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>住所</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ジュウショ </t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -162,6 +141,13 @@
       <sz val="6"/>
       <name val="02UtsukushiMincho"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Meiryo"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -193,14 +179,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -585,183 +574,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="45.83203125" style="2" customWidth="1"/>
-    <col min="4" max="256" width="8.83203125" customWidth="1"/>
+    <col min="1" max="3" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
